--- a/assets/downloadables/DCF_Form_11.xlsx
+++ b/assets/downloadables/DCF_Form_11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form11" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>FORM 11 - ACCESS TO FINANCING TRACKER</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>Date Released:</t>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
   </si>
 </sst>
 </file>
@@ -118,7 +131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +150,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,11 +223,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +276,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -552,26 +623,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -586,28 +657,28 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="12" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1026,4 +1097,63 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_11.xlsx
+++ b/assets/downloadables/DCF_Form_11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -131,7 +131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +317,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:R5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,58 +740,58 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="23">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="23">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="23">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="23">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="23">
         <v>7</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="23">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="23">
         <v>9</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="23">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="23">
         <v>11</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="23">
         <v>12</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="23">
         <v>13</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="23">
         <v>14</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="23">
         <v>15</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="23">
         <v>16</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="23">
         <v>17</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_11.xlsx
+++ b/assets/downloadables/DCF_Form_11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>FORM 11 - ACCESS TO FINANCING TRACKER</t>
   </si>
@@ -110,13 +110,19 @@
   </si>
   <si>
     <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>DIP Alignment</t>
+  </si>
+  <si>
+    <t>Select one (Yes, No) if yes please specify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +135,13 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -261,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,8 +311,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,9 +332,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,58 +754,58 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="16">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="16">
         <v>6</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="16">
         <v>7</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="16">
         <v>8</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="16">
         <v>9</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="16">
         <v>10</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="16">
         <v>11</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <v>12</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="16">
         <v>13</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="16">
         <v>14</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="16">
         <v>15</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="16">
         <v>16</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="16">
         <v>17</v>
       </c>
     </row>
@@ -1113,13 +1127,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1138,9 +1152,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
+    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
